--- a/Astronomical image processing/Data/suns_remove.xlsx
+++ b/Astronomical image processing/Data/suns_remove.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tolbran.000\Desktop\New folder\Astronomical image processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tolbran.000\Desktop\New folder\Astronomical image processing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA578FE-3F59-41EA-BBE5-5F535D4E73A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E50A79-93FE-428F-B3D4-AEF7AAF1B8B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{512C4531-10C7-4207-A8E5-A3979664A861}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,13 +419,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1337</v>
+        <v>1162</v>
       </c>
       <c r="B2">
-        <v>3097</v>
+        <v>2955</v>
       </c>
       <c r="C2">
-        <v>263</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
